--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -635,27 +635,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 63516-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 63516-2020.xlsx", "A 63516-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 63516-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 63516-2020.png", "A 63516-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 63516-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 63516-2020.docx", "A 63516-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 63516-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 63516-2020.docx", "A 63516-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 63516-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 63516-2020.docx", "A 63516-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 63516-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 63516-2020.docx", "A 63516-2020")</f>
         <v/>
       </c>
     </row>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -733,31 +733,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 35289-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 35289-2019.xlsx", "A 35289-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 35289-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 35289-2019.png", "A 35289-2019")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/knärot/A 35289-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/knärot/A 35289-2019.png", "A 35289-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 35289-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 35289-2019.docx", "A 35289-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 35289-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 35289-2019.docx", "A 35289-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 35289-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 35289-2019.docx", "A 35289-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 35289-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 35289-2019.docx", "A 35289-2019")</f>
         <v/>
       </c>
     </row>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -829,27 +829,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 36428-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 36428-2021.xlsx", "A 36428-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 36428-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 36428-2021.png", "A 36428-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 36428-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 36428-2021.docx", "A 36428-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 36428-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 36428-2021.docx", "A 36428-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 36428-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 36428-2021.docx", "A 36428-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 36428-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 36428-2021.docx", "A 36428-2021")</f>
         <v/>
       </c>
     </row>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,27 +925,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 35291-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 35291-2019.xlsx", "A 35291-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 35291-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 35291-2019.png", "A 35291-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 35291-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 35291-2019.docx", "A 35291-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 35291-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 35291-2019.docx", "A 35291-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 35291-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 35291-2019.docx", "A 35291-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 35291-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 35291-2019.docx", "A 35291-2019")</f>
         <v/>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1015,27 +1015,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 27640-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 27640-2020.xlsx", "A 27640-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 27640-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 27640-2020.png", "A 27640-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 27640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 27640-2020.docx", "A 27640-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 27640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 27640-2020.docx", "A 27640-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 27640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 27640-2020.docx", "A 27640-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 27640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 27640-2020.docx", "A 27640-2020")</f>
         <v/>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,27 +1104,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 58566-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 58566-2019.xlsx", "A 58566-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 58566-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 58566-2019.png", "A 58566-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 58566-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 58566-2019.docx", "A 58566-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 58566-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 58566-2019.docx", "A 58566-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 58566-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 58566-2019.docx", "A 58566-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 58566-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 58566-2019.docx", "A 58566-2019")</f>
         <v/>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,27 +1192,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 36431-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 36431-2021.xlsx", "A 36431-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 36431-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 36431-2021.png", "A 36431-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 36431-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 36431-2021.docx", "A 36431-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 36431-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 36431-2021.docx", "A 36431-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 36431-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 36431-2021.docx", "A 36431-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 36431-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 36431-2021.docx", "A 36431-2021")</f>
         <v/>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,27 +1279,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 28832-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 28832-2022.xlsx", "A 28832-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 28832-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 28832-2022.png", "A 28832-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 28832-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 28832-2022.docx", "A 28832-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 28832-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 28832-2022.docx", "A 28832-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 28832-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 28832-2022.docx", "A 28832-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 28832-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 28832-2022.docx", "A 28832-2022")</f>
         <v/>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1365,27 +1365,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 28842-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 28842-2022.xlsx", "A 28842-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 28842-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 28842-2022.png", "A 28842-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 28842-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 28842-2022.docx", "A 28842-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 28842-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 28842-2022.docx", "A 28842-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 28842-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 28842-2022.docx", "A 28842-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 28842-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 28842-2022.docx", "A 28842-2022")</f>
         <v/>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1451,27 +1451,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 28847-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 28847-2022.xlsx", "A 28847-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 28847-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 28847-2022.png", "A 28847-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 28847-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 28847-2022.docx", "A 28847-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 28847-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 28847-2022.docx", "A 28847-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 28847-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 28847-2022.docx", "A 28847-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 28847-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 28847-2022.docx", "A 28847-2022")</f>
         <v/>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1537,27 +1537,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 29448-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 29448-2023.xlsx", "A 29448-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 29448-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 29448-2023.png", "A 29448-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 29448-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 29448-2023.docx", "A 29448-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 29448-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 29448-2023.docx", "A 29448-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 29448-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 29448-2023.docx", "A 29448-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 29448-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 29448-2023.docx", "A 29448-2023")</f>
         <v/>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,27 +1622,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 53298-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/artfynd/A 53298-2022.xlsx", "A 53298-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 53298-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/kartor/A 53298-2022.png", "A 53298-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 53298-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 53298-2022.docx", "A 53298-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 53298-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 53298-2022.docx", "A 53298-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 53298-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 53298-2022.docx", "A 53298-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 53298-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 53298-2022.docx", "A 53298-2022")</f>
         <v/>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1703,23 +1703,23 @@
       </c>
       <c r="R14" s="2" t="inlineStr"/>
       <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/knärot/A 45307-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/knärot/A 45307-2018.png", "A 45307-2018")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 45307-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomål/A 45307-2018.docx", "A 45307-2018")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 45307-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/klagomålsmail/A 45307-2018.docx", "A 45307-2018")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 45307-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsyn/A 45307-2018.docx", "A 45307-2018")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 45307-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HABO/tillsynsmail/A 45307-2018.docx", "A 45307-2018")</f>
         <v/>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>

--- a/Översikt HABO.xlsx
+++ b/Översikt HABO.xlsx
@@ -572,7 +572,7 @@
         <v>44165</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>43651</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         <v>44390</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>43651</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43993</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         <v>43773</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>44390</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>44749</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44749</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44749</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         <v>45106</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
         <v>44877</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43360</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>43395</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>43396</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>43413</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>43446</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>43452</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>43474</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>43479</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>43481</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         <v>43501</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>43508</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>43516</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>43517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43555</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         <v>43570</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>43627</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>43640</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>43658</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         <v>43690</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2769,7 +2769,7 @@
         <v>43691</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         <v>43728</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43742</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>43773</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>43773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43776</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43776</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43781</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43781</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43783</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43789</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43801</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43857</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>43858</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43858</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43943</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43999</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>44022</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>44049</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>44132</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>44137</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44169</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>44174</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>44208</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         <v>44208</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>44208</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>44208</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         <v>44237</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         <v>44237</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         <v>44274</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>44334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4623,7 +4623,7 @@
         <v>44358</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>44362</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>44382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>44384</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>44424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>44425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5084,7 +5084,7 @@
         <v>44461</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         <v>44488</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         <v>44488</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>44488</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         <v>44500</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44527</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>44532</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>44566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>44623</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
         <v>44628</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5654,7 +5654,7 @@
         <v>44640</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>44683</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>44693</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44727</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>44749</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44749</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44749</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44749</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44749</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44749</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44769</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>44797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>44824</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44830</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         <v>44832</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>44846</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>44853</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>44859</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         <v>44876</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         <v>44877</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         <v>44894</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>44894</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         <v>44914</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         <v>44939</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         <v>44951</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44951</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44995</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>45007</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>45020</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>45020</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>45020</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>45020</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>45021</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>45030</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>45044</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>45099</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         <v>45099</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         <v>45099</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         <v>45106</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>45113</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>45119</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         <v>45119</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         <v>45119</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>45119</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>45120</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45120</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45120</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45120</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45121</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45141</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45153</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
